--- a/data/trans_bre/P48_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-18,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-22,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>-47,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>-57,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-38,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-28,24%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 17,36</t>
+          <t>-39,59; 2,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 14,01</t>
+          <t>-45,11; -1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 10,82</t>
+          <t>-31,85; 9,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 13,57</t>
+          <t>-27,81; 12,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 82,66</t>
+          <t>-30,28; 18,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 70,41</t>
+          <t>-75,22; 20,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 54,2</t>
+          <t>-84,28; -4,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 69,42</t>
+          <t>-75,69; 74,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-70,97; 129,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-52,3; 64,18</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>10,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>16,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 20,33</t>
+          <t>-14,32; 28,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 21,29</t>
+          <t>-11,92; 31,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 17,58</t>
+          <t>-12,39; 29,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 18,55</t>
+          <t>-11,29; 28,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 93,38</t>
+          <t>-4,9; 40,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 147,71</t>
+          <t>-32,94; 175,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 77,08</t>
+          <t>-36,64; 311,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 94,08</t>
+          <t>-30,48; 170,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 205,42</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-13,6; 270,82</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-13,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>-9,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 15,21</t>
+          <t>-20,66; 11,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 17,7</t>
+          <t>-32,54; 3,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 16,08</t>
+          <t>-21,1; 11,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 17,47</t>
+          <t>-19,9; 11,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 34,63</t>
+          <t>-21,05; 12,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 51,99</t>
+          <t>-30,23; 21,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 49,01</t>
+          <t>-45,68; 6,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 57,73</t>
+          <t>-33,64; 28,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,43; 32,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-32,6; 28,39</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,5</t>
+          <t>-12,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,45%</t>
+          <t>-24,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-24,21%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 11,8</t>
+          <t>-14,71; 15,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 15,82</t>
+          <t>-14,11; 17,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 2,26</t>
+          <t>-27,54; 2,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 2,16</t>
+          <t>-25,68; 3,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 32,89</t>
+          <t>-14,39; 16,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 49,42</t>
+          <t>-26,59; 42,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 6,14</t>
+          <t>-24,7; 48,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 5,63</t>
+          <t>-46,77; 5,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-45,69; 8,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-30,91; 53,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,23</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,24</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>-12,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-10,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-27,32%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 22,02</t>
+          <t>-3,64; 28,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 23,73</t>
+          <t>-6,43; 32,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 20,01</t>
+          <t>-23,34; 14,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 21,11</t>
+          <t>-20,77; 15,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 111,35</t>
+          <t>-25,18; 8,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 130,66</t>
+          <t>-10,61; 156,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 106,35</t>
+          <t>-20,14; 196,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 117,95</t>
+          <t>-56,73; 66,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-54,21; 73,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-62,06; 38,71</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,26</t>
+          <t>-19,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,53</t>
+          <t>-20,28</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-17,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,73%</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,87%</t>
+          <t>-56,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-48,09%</t>
+          <t>-66,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-55,27%</t>
+          <t>-54,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-58,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-29,0%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,2; 1,93</t>
+          <t>-36,66; -0,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 3,7</t>
+          <t>-40,61; -2,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 0,12</t>
+          <t>-34,12; 1,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,13; -1,22</t>
+          <t>-34,66; 0,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,19; 16,92</t>
+          <t>-25,01; 10,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,45; 30,53</t>
+          <t>-82,95; 0,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-77,11; 5,4</t>
+          <t>-92,65; 3,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,88; -5,32</t>
+          <t>-81,01; 14,0</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-82,75; 5,44</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-73,77; 72,18</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,57</t>
+          <t>-8,51; 6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,85</t>
+          <t>-10,9; 6,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 3,66</t>
+          <t>-12,77; 2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,53</t>
+          <t>-11,92; 3,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 23,52</t>
+          <t>-8,12; 9,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 27,4</t>
+          <t>-18,48; 20,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 11,59</t>
+          <t>-24,83; 21,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 12,2</t>
+          <t>-29,34; 6,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 12,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; 30,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
